--- a/results/SS/SS_k_fold.xlsx
+++ b/results/SS/SS_k_fold.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Run</t>
   </si>
@@ -74,15 +74,17 @@
   </si>
   <si>
     <t xml:space="preserve">1024_3_000033_j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -179,7 +181,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,12 +191,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -260,19 +262,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,6 +591,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
+      <c r="H12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">STDEV(I2:I11)</f>
+        <v>0.00418518225242571</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
